--- a/Raw Input Data/Template V2/ADCC V2.xlsx
+++ b/Raw Input Data/Template V2/ADCC V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Template V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F828E-FF4D-4162-B01C-493BB4F19B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CB24E-841F-4130-968A-322459EB262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D98D0E3F-6E76-754A-9BB6-79DE637B44FD}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{D98D0E3F-6E76-754A-9BB6-79DE637B44FD}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC-Params" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>Value</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>Victim Account Number Sequence</t>
+  </si>
+  <si>
+    <t>Sections_of_table_of_beneficiary_details_with_tables_of_transaction_details</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111-111111-102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUNG SIU </t>
+  </si>
+  <si>
+    <t>Victim Number</t>
   </si>
 </sst>
 </file>
@@ -486,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,14 +514,10 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -847,7 +858,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,27 +879,24 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="9"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -896,7 +904,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -904,13 +912,13 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="3"/>
@@ -919,7 +927,7 @@
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -927,7 +935,7 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -935,7 +943,7 @@
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -943,7 +951,7 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -951,7 +959,7 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -959,7 +967,7 @@
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -967,7 +975,7 @@
       <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -978,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFC332-B76A-F243-9758-115119AF4083}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -991,7 +999,7 @@
     <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1007,12 +1015,11 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
@@ -1032,17 +1039,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1056,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1160796E-BF6B-334E-B5BD-991CA2BB931A}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1098,7 @@
     <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1102,42 +1126,48 @@
       <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
       <c r="K1" t="s">
         <v>108</v>
       </c>
       <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>50000</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>50000</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
       <c r="J2">
@@ -1149,33 +1179,39 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>10000</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" t="s">
         <v>104</v>
       </c>
       <c r="J3">
@@ -1187,33 +1223,39 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>31000</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>31000</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" t="s">
         <v>104</v>
       </c>
       <c r="J4">
@@ -1223,35 +1265,41 @@
         <v>23</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>50000</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>50000</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" t="s">
         <v>104</v>
       </c>
       <c r="J5">
@@ -1261,73 +1309,85 @@
         <v>23</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>60000</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>60000</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" t="s">
         <v>104</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>30000</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>30000</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
       <c r="J7">
@@ -1337,31 +1397,36 @@
         <v>23</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>39000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>39000</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" t="s">
         <v>104</v>
       </c>
       <c r="J8">
@@ -1371,59 +1436,139 @@
         <v>23</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -1628,7 +1773,7 @@
     <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str" cm="1">
         <f t="array" ref="A4">"The details of next layer beneficiary account(s) relating to the below transaction of " &amp; "[" &amp; _xlfn.TEXTJOIN(", ", TRUE, IF('ADCC-Beneficiary-Details'!A2:'ADCC-Beneficiary-Details'!A10&lt;&gt;"", 'ADCC-Beneficiary-Details'!A2:'ADCC-Beneficiary-Details'!A10, "")) &amp; "]" &amp; " (including details of transaction, bank, account number and beneficiary name)."</f>
-        <v>The details of next layer beneficiary account(s) relating to the below transaction of [AC1] (including details of transaction, bank, account number and beneficiary name).</v>
+        <v>The details of next layer beneficiary account(s) relating to the below transaction of [AC1, AC2] (including details of transaction, bank, account number and beneficiary name).</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1644,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33965A-B397-8D4D-8C68-B0CC4C6D2983}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1669,8 +1814,8 @@
         <v>16</v>
       </c>
       <c r="B2" t="str">
-        <f>"**""" &amp;"&lt;Template_Fraudulent_Activities&gt;"&amp; 'ADCC-Params'!B2&amp; "&lt;/Template_Fraudulent_Activities&gt;"&amp; """**"</f>
-        <v>**"&lt;Template_Fraudulent_Activities&gt;Investment Fraud&lt;/Template_Fraudulent_Activities&gt;"**</v>
+        <f>"**""" &amp;"&lt;Template_FraudulentActivities&gt;"&amp; 'ADCC-Params'!B2&amp; "&lt;/Template_FraudulentActivities&gt;"&amp; """**"</f>
+        <v>**"&lt;Template_FraudulentActivities&gt;Investment Fraud&lt;/Template_FraudulentActivities&gt;"**</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1827,7 @@
         <v>**[]**</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1698,10 +1843,10 @@
 )</f>
         <v>i) The latest balance of the beneficiary account(s);
 ii) Whether the beneficiary account(s) has been suspended after your review. If yes, what functions are blocked;
-iii) The details of next layer beneficiary account(s) relating to the below transaction of [AC1] (including details of transaction, bank, account number and beneficiary name). If the beneficiary account(s) belong to your bank, please provide us the account balance.</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+iii) The details of next layer beneficiary account(s) relating to the below transaction of [AC1, AC2] (including details of transaction, bank, account number and beneficiary name). If the beneficiary account(s) belong to your bank, please provide us the account balance.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1712,12 +1857,21 @@
   _xlpm.tableData, 'ADCC-Beneficiary-Details'!A2:'ADCC-Beneficiary-Details'!E21,
   _xlpm.data, _xlfn._xlws.FILTER(_xlpm.tableData, LEN(INDEX(_xlpm.tableData, 0, 1)) &gt; 0),
   _xlpm.processAcctName, _xlfn.LAMBDA(_xlpm.x, TRIM(SUBSTITUTE(SUBSTITUTE(_xlpm.x, CHAR(10), "&lt;br /&gt;"), """", ""))),
+  _xlpm.Fcol, 'ADCC-Beneficiary-Details'!F2:F21,
   _xlpm.dataProcessed, _xlfn.HSTACK(
-      INDEX(_xlpm.data, , 1),
-      INDEX(_xlpm.data, , 2),
-      INDEX(_xlpm.data, , 3),
-      INDEX(_xlpm.data, , 4),
-      _xlfn.MAP(INDEX(_xlpm.data, , 5), _xlpm.processAcctName)
+    INDEX(_xlpm.data, , 1),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      "&lt;Template_Suspect"&amp;INDEX(_xlpm.Fcol, _xlpm.i)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 2)&amp;"&lt;/Template_Suspect"&amp;INDEX(_xlpm.Fcol, _xlpm.i)&amp;"_Bank&gt;"
+    )),
+    INDEX(_xlpm.data, , 3),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      "&lt;Template_Suspect"&amp;INDEX(_xlpm.Fcol, _xlpm.i)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 4)&amp;"&lt;/Template_Suspect"&amp;INDEX(_xlpm.Fcol, _xlpm.i)&amp;"_AccountNumber&gt;"
+    )),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      "&lt;Template_Suspect" &amp; INDEX(_xlpm.Fcol, _xlpm.i) &amp; "_Name&gt;" &amp;
+      _xlpm.processAcctName(INDEX(_xlpm.data, _xlpm.i, 5)) &amp;
+      "&lt;/Template_Suspect" &amp; INDEX(_xlpm.Fcol, _xlpm.i) &amp; "_Name&gt;"
+    ))
   ),
   _xlpm.headerRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.headers) &amp; " |",
   _xlpm.dashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.headers, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
@@ -1730,7 +1884,8 @@
 )</f>
         <v>| Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
 | ---- | ---------------- | ----- | ----------------------- | ------------------------ |
-| AC1 | HSB | 1st | 111-111111-101  | CHAN TAI MAN |</v>
+| AC1 | &lt;Template_Suspect1_Bank&gt;HSB&lt;/Template_Suspect1_Bank&gt; | 1st | &lt;Template_Suspect1_AccountNumber&gt;111-111111-101 &lt;/Template_Suspect1_AccountNumber&gt; | &lt;Template_Suspect1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect1_Name&gt; |
+| AC2 | &lt;Template_Suspect2_Bank&gt;HSB&lt;/Template_Suspect2_Bank&gt; | 1st | &lt;Template_Suspect2_AccountNumber&gt;111-111111-102 &lt;/Template_Suspect2_AccountNumber&gt; | &lt;Template_Suspect2_Name&gt;CHUNG SIU&lt;/Template_Suspect2_Name&gt; |</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="307.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1743,16 +1898,33 @@
   _xlpm.headers, INDEX(_xlpm.rng, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.rng))),
   _xlpm.tableData, 'ADCC-Txn-Details'!A2:'ADCC-Txn-Details'!I21,
   _xlpm.data, _xlfn._xlws.FILTER(_xlpm.tableData, LEN(INDEX(_xlpm.tableData, 0, 1)) &gt; 0),
+  _xlpm.Jcol, 'ADCC-Txn-Details'!J2:J21,
+  _xlpm.Lcol, 'ADCC-Txn-Details'!M2:M21,
+  _xlpm.Mcol, 'ADCC-Txn-Details'!N2:N21,
   _xlpm.dataProcessed, _xlfn.HSTACK(
       INDEX(_xlpm.data, , 1),
-      INDEX(_xlpm.data, , 2),
-      INDEX(_xlpm.data, , 3),
-      INDEX(_xlpm.data, , 4),
-      INDEX(_xlpm.data, , 5),
-      INDEX(_xlpm.data, , 6),
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 2)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"
+      )),
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 3)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"
+      )),
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 4)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"
+      )),
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 5)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"
+      )),
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 6)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_Bank&gt;"
+      )),
       INDEX(_xlpm.data, , 7),
-      INDEX(_xlpm.data, , 8),
-      INDEX(_xlpm.data, , 9)
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 8)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_AccountNumber&gt;"
+      )),
+      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+        "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Name&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 9)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Name&gt;"
+      ))
   ),
   _xlpm.headerRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.headers) &amp; " |",
   _xlpm.dashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.headers, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
@@ -1765,18 +1937,157 @@
 )</f>
         <v>| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | 2024-08-24 | HKD | 50000 | 50000 | HSBC | Hong Kong | 444-4444444-101 | CHEUNG TAK SHING  |
-| 2 | 2024-08-25 | HKD | 10000 | 10000 | HSBC | Hong Kong | 444-4444444-101 | CHEUNG TAK SHING  |
-| 1 | 2024-08-24 | HKD | 31000 | 31000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 2 | 2024-08-25 | HKD | 50000 | 50000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 3 | 2024-08-25 | HKD | 60000 | 60000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 4 | 2024-08-25 | HKD | 30000 | 30000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 1 | 2024-08-25 | HKD | 39000 | 39000 | Hong Kong | CHEUNG TAK SHING  |</v>
+| 1 | &lt;Template_FraudPayment2_Date&gt;2024-08-24&lt;/Template_FraudPayment2_Date&gt; | &lt;Template_FraudPayment2_Currency&gt;HKD&lt;/Template_FraudPayment2_Currency&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_FraudPayment3_Date&gt;2024-08-25&lt;/Template_FraudPayment3_Date&gt; | &lt;Template_FraudPayment3_Currency&gt;HKD&lt;/Template_FraudPayment3_Currency&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_FraudPayment4_Date&gt;2024-08-24&lt;/Template_FraudPayment4_Date&gt; | &lt;Template_FraudPayment4_Currency&gt;HKD&lt;/Template_FraudPayment4_Currency&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_FraudPayment5_Date&gt;2024-08-25&lt;/Template_FraudPayment5_Date&gt; | &lt;Template_FraudPayment5_Currency&gt;HKD&lt;/Template_FraudPayment5_Currency&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 3 | &lt;Template_FraudPayment6_Date&gt;2024-08-25&lt;/Template_FraudPayment6_Date&gt; | &lt;Template_FraudPayment6_Currency&gt;HKD&lt;/Template_FraudPayment6_Currency&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 4 | &lt;Template_FraudPayment7_Date&gt;2024-08-25&lt;/Template_FraudPayment7_Date&gt; | &lt;Template_FraudPayment7_Currency&gt;HKD&lt;/Template_FraudPayment7_Currency&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_FraudPayment8_Date&gt;2024-08-25&lt;/Template_FraudPayment8_Date&gt; | &lt;Template_FraudPayment8_Currency&gt;HKD&lt;/Template_FraudPayment8_Currency&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_FraudPayment9_Date&gt;2024-08-25&lt;/Template_FraudPayment9_Date&gt; | &lt;Template_FraudPayment9_Currency&gt;HKD&lt;/Template_FraudPayment9_Currency&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_FraudPayment10_Date&gt;2024-08-25&lt;/Template_FraudPayment10_Date&gt; | &lt;Template_FraudPayment10_Currency&gt;HKD&lt;/Template_FraudPayment10_Currency&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="str" cm="1">
+        <f t="array" ref="B7">_xlfn.LET(
+  _xlpm.benRng, 'ADCC-Beneficiary-Details'!A1:E21,
+  _xlpm.benHeaders, INDEX(_xlpm.benRng, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.benRng))),
+  _xlpm.benTableData, 'ADCC-Beneficiary-Details'!A2:E21,
+  _xlpm.benData, _xlfn._xlws.FILTER(_xlpm.benTableData, LEN(INDEX(_xlpm.benTableData, 0, 1)) &gt; 0),
+  _xlpm.benFcol, _xlfn._xlws.FILTER('ADCC-Beneficiary-Details'!F2:F21, LEN(INDEX(_xlpm.benTableData, 0, 1)) &gt; 0),
+  _xlpm.processAcctName, _xlfn.LAMBDA(_xlpm.x, TRIM(SUBSTITUTE(SUBSTITUTE(_xlpm.x, CHAR(10), "&lt;br /&gt;"), """", ""))),
+  _xlpm.txnRng, 'ADCC-Txn-Details'!A1:I21,
+  _xlpm.txnHeaders, INDEX(_xlpm.txnRng, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.txnRng))),
+  _xlpm.txnTableData, 'ADCC-Txn-Details'!A2:I21,
+  _xlpm.txnJcol, 'ADCC-Txn-Details'!J2:J21,
+  _xlpm.txnLcol, 'ADCC-Txn-Details'!L2:L21,
+  _xlpm.txnMcol, 'ADCC-Txn-Details'!M2:M21,
+  _xlpm.txnNcol, 'ADCC-Txn-Details'!N2:N21,
+  _xlpm.groups, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.benFcol, _xlpm.benFcol&lt;&gt;"")),
+  _xlpm.makeSection, _xlfn.LAMBDA(_xlpm.group,
+    _xlfn.LET(
+      _xlpm.benRowIndices, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(ROWS(_xlpm.benFcol)), _xlpm.benFcol=_xlpm.group),
+      _xlpm.benRows, INDEX(_xlpm.benData, _xlpm.benRowIndices, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.benData))),
+      _xlpm.benProcessed, _xlfn.HSTACK(
+        INDEX(_xlpm.benRows, , 1),
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
+          "&lt;Template_Suspect_"&amp;_xlpm.group&amp;"_Bank&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 2)&amp;"&lt;/Template_Suspect_"&amp;_xlpm.group&amp;"_Bank&gt;"
+        )),
+        INDEX(_xlpm.benRows, , 3),
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
+          "&lt;Template_Suspect_"&amp;_xlpm.group&amp;"_Account_Number&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 4)&amp;"&lt;/Template_Suspect_"&amp;_xlpm.group&amp;"_Account_Number&gt;"
+        )),
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
+          "&lt;Template_Suspect_" &amp; _xlpm.group &amp; "_Name&gt;" &amp;
+          _xlpm.processAcctName(INDEX(_xlpm.benRows, _xlpm.i, 5)) &amp;
+          "&lt;/Template_Suspect_" &amp; _xlpm.group &amp; "_Name&gt;"
+        ))
+      ),
+      _xlpm.benHeaderRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.benHeaders) &amp; " |",
+      _xlpm.benDashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.benHeaders, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
+      _xlpm.benDataRows, _xlfn.TEXTJOIN(CHAR(10), TRUE,
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benProcessed)), _xlfn.LAMBDA(_xlpm.i,
+          "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.benProcessed, _xlpm.i, )) &amp; " |"
+        ))
+      ),
+      _xlpm.benTable, "Details of Beneficiary" &amp; CHAR(10) &amp; _xlpm.benHeaderRow &amp; CHAR(10) &amp; _xlpm.benDashRow &amp; CHAR(10) &amp; _xlpm.benDataRows,
+      _xlpm.txnForGroup, _xlfn._xlws.FILTER(_xlpm.txnTableData, _xlpm.txnLcol=_xlpm.group),
+      _xlpm.txnJForGroup, _xlfn._xlws.FILTER(_xlpm.txnJcol, _xlpm.txnLcol=_xlpm.group),
+      _xlpm.txnMForGroup, _xlfn._xlws.FILTER(_xlpm.txnMcol, _xlpm.txnLcol=_xlpm.group),
+      _xlpm.txnNForGroup, _xlfn._xlws.FILTER(_xlpm.txnNcol, _xlpm.txnLcol=_xlpm.group),
+      _xlpm.mnCombined, _xlpm.txnMForGroup &amp; "-" &amp; _xlpm.txnNForGroup,
+      _xlpm.txnSubGroups, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.mnCombined, _xlpm.mnCombined&lt;&gt;"")),
+      _xlpm.makeTxnTable, _xlfn.LAMBDA(_xlpm.subGroup,
+        _xlfn.LET(
+          _xlpm.subIndices, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(ROWS(_xlpm.mnCombined)), _xlpm.mnCombined=_xlpm.subGroup),
+          _xlpm.txnRows, INDEX(_xlpm.txnForGroup, _xlpm.subIndices, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.txnForGroup))),
+          _xlpm.subJcol, INDEX(_xlpm.txnJForGroup, _xlpm.subIndices),
+          _xlpm.subMcol, INDEX(_xlpm.txnMForGroup, _xlpm.subIndices),
+          _xlpm.subNcol, INDEX(_xlpm.txnNForGroup, _xlpm.subIndices),
+          _xlpm.txnProcessed, _xlfn.HSTACK(
+            INDEX(_xlpm.txnRows, , 1),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Date&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 2)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Date&gt;"
+            )),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 3)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Currency&gt;"
+            )),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 4)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"
+            )),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 5)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"
+            )),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 6)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_Bank&gt;"
+            )),
+            INDEX(_xlpm.txnRows, , 7),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 8)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_AccountNumber&gt;"
+            )),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
+              "&lt;Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Name&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 9)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Name&gt;"
+            ))
+          ),
+          _xlpm.txnHeaderRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.txnHeaders) &amp; " |",
+          _xlpm.txnDashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.txnHeaders, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
+          _xlpm.txnDataRows, _xlfn.TEXTJOIN(CHAR(10), TRUE,
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnProcessed)), _xlfn.LAMBDA(_xlpm.i,
+              "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.txnProcessed, _xlpm.i, )) &amp; " |"
+            ))
+          ),
+          "Transaction Details" &amp; CHAR(10) &amp; _xlpm.txnHeaderRow &amp; CHAR(10) &amp; _xlpm.txnDashRow &amp; CHAR(10) &amp; _xlpm.txnDataRows
+        )
+      ),
+      _xlpm.allTxnTables, _xlfn.TEXTJOIN(CHAR(10) &amp; CHAR(10), TRUE, _xlfn.MAP(_xlpm.txnSubGroups, _xlpm.makeTxnTable)),
+      _xlpm.benTable &amp; CHAR(10) &amp; CHAR(10) &amp; _xlpm.allTxnTables &amp; CHAR(10) &amp; CHAR(10) &amp; IF('ADCC-Params'!B6="Y","\*\*STR\*\*","\*\*NO STR\*\*")
+    )
+  ),
+  _xlfn.TEXTJOIN(CHAR(10) &amp; CHAR(10), TRUE, _xlfn.MAP(_xlpm.groups, _xlpm.makeSection))
+)</f>
+        <v>Details of Beneficiary
+| Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
+| ---- | ---------------- | ----- | ----------------------- | ------------------------ |
+| AC1 | &lt;Template_Suspect_1_Bank&gt;HSB&lt;/Template_Suspect_1_Bank&gt; | 1st | &lt;Template_Suspect_1_Account_Number&gt;111-111111-101 &lt;/Template_Suspect_1_Account_Number&gt; | &lt;Template_Suspect_1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect_1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment2_Date&gt;2024-08-24&lt;/Template_FraudPayment2_Date&gt; | &lt;Template_FraudPayment2_Currency&gt;HKD&lt;/Template_FraudPayment2_Currency&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_FraudPayment3_Date&gt;2024-08-25&lt;/Template_FraudPayment3_Date&gt; | &lt;Template_FraudPayment3_Currency&gt;HKD&lt;/Template_FraudPayment3_Currency&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment4_Date&gt;2024-08-24&lt;/Template_FraudPayment4_Date&gt; | &lt;Template_FraudPayment4_Currency&gt;HKD&lt;/Template_FraudPayment4_Currency&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_FraudPayment5_Date&gt;2024-08-25&lt;/Template_FraudPayment5_Date&gt; | &lt;Template_FraudPayment5_Currency&gt;HKD&lt;/Template_FraudPayment5_Currency&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 3 | &lt;Template_FraudPayment6_Date&gt;2024-08-25&lt;/Template_FraudPayment6_Date&gt; | &lt;Template_FraudPayment6_Currency&gt;HKD&lt;/Template_FraudPayment6_Currency&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 4 | &lt;Template_FraudPayment7_Date&gt;2024-08-25&lt;/Template_FraudPayment7_Date&gt; | &lt;Template_FraudPayment7_Currency&gt;HKD&lt;/Template_FraudPayment7_Currency&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment8_Date&gt;2024-08-25&lt;/Template_FraudPayment8_Date&gt; | &lt;Template_FraudPayment8_Currency&gt;HKD&lt;/Template_FraudPayment8_Currency&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+\*\*NO STR\*\*
+Details of Beneficiary
+| Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
+| ---- | ---------------- | ----- | ----------------------- | ------------------------ |
+| AC2 | &lt;Template_Suspect_2_Bank&gt;HSB&lt;/Template_Suspect_2_Bank&gt; | 1st | &lt;Template_Suspect_2_Account_Number&gt;111-111111-102 &lt;/Template_Suspect_2_Account_Number&gt; | &lt;Template_Suspect_2_Name&gt;CHUNG SIU&lt;/Template_Suspect_2_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment9_Date&gt;2024-08-25&lt;/Template_FraudPayment9_Date&gt; | &lt;Template_FraudPayment9_Currency&gt;HKD&lt;/Template_FraudPayment9_Currency&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment10_Date&gt;2024-08-25&lt;/Template_FraudPayment10_Date&gt; | &lt;Template_FraudPayment10_Currency&gt;HKD&lt;/Template_FraudPayment10_Currency&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+\*\*NO STR\*\*</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1784,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20049DAE-7D29-4C48-8C4E-F65336495C09}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1970,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DA51B1-9D3A-004F-B268-14C997F191DB}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1987,10 +2298,10 @@
         <v>Dear HSB,</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>'ADCC-Template'!B3&amp;'ADCC-Runtime-Params'!B2&amp;'ADCC-Template'!B4&amp;"**"&amp;'ADCC-Params'!B3&amp;"**"&amp;'ADCC-Template'!B5&amp;"**"&amp;"&lt;Template_Police_Investigation_Team_Name&gt;"&amp;'ADCC-Params'!B4&amp;"&lt;/Template_Police_Investigation_Team_Name&gt;"&amp;"**"&amp;'ADCC-Template'!B6&amp;'ADCC-Runtime-Params'!B3</f>
-        <v>Please be informed of a case of **"&lt;Template_Fraudulent_Activities&gt;Investment Fraud&lt;/Template_Fraudulent_Activities&gt;"** reported on **2024-09-01** and it is under the investigation by **&lt;Template_Police_Investigation_Team_Name&gt;DIT2-■■■■■&lt;/Template_Police_Investigation_Team_Name&gt;**. It is alleged that the relevant crime proceeds were transferred to the account(s) below **[]**</v>
+        <f>'ADCC-Template'!B3&amp;'ADCC-Runtime-Params'!B2&amp;'ADCC-Template'!B4&amp;"**"&amp;'ADCC-Params'!B3&amp;"**"&amp;'ADCC-Template'!B5&amp;"**"&amp;"&lt;Template_PoliceInvestigationTeamName&gt;"&amp;'ADCC-Params'!B4&amp;"&lt;/Template_PoliceInvestigationTeamName&gt;"&amp;"**"&amp;'ADCC-Template'!B6&amp;'ADCC-Runtime-Params'!B3</f>
+        <v>Please be informed of a case of **"&lt;Template_FraudulentActivities&gt;Investment Fraud&lt;/Template_FraudulentActivities&gt;"** reported on **2024-09-01** and it is under the investigation by **&lt;Template_PoliceInvestigationTeamName&gt;DIT2-■■■■■&lt;/Template_PoliceInvestigationTeamName&gt;**. It is alleged that the relevant crime proceeds were transferred to the account(s) below **[]**</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2004,107 +2315,103 @@
         <f>'ADCC-Runtime-Params'!B4</f>
         <v>i) The latest balance of the beneficiary account(s);
 ii) Whether the beneficiary account(s) has been suspended after your review. If yes, what functions are blocked;
-iii) The details of next layer beneficiary account(s) relating to the below transaction of [AC1] (including details of transaction, bank, account number and beneficiary name). If the beneficiary account(s) belong to your bank, please provide us the account balance.</v>
+iii) The details of next layer beneficiary account(s) relating to the below transaction of [AC1, AC2] (including details of transaction, bank, account number and beneficiary name). If the beneficiary account(s) belong to your bank, please provide us the account balance.</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>'ADCC-Template'!B8</f>
-        <v>Details of Beneficiary</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f>'ADCC-Runtime-Params'!B5</f>
-        <v>| Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
+        <f>'ADCC-Runtime-Params'!B7</f>
+        <v>Details of Beneficiary
+| Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
 | ---- | ---------------- | ----- | ----------------------- | ------------------------ |
-| AC1 | HSB | 1st | 111-111111-101  | CHAN TAI MAN |</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>'ADCC-Template'!B9</f>
-        <v>Transaction Details</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>'ADCC-Runtime-Params'!B6</f>
-        <v>| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| AC1 | &lt;Template_Suspect_1_Bank&gt;HSB&lt;/Template_Suspect_1_Bank&gt; | 1st | &lt;Template_Suspect_1_Account_Number&gt;111-111111-101 &lt;/Template_Suspect_1_Account_Number&gt; | &lt;Template_Suspect_1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect_1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | 2024-08-24 | HKD | 50000 | 50000 | HSBC | Hong Kong | 444-4444444-101 | CHEUNG TAK SHING  |
-| 2 | 2024-08-25 | HKD | 10000 | 10000 | HSBC | Hong Kong | 444-4444444-101 | CHEUNG TAK SHING  |
-| 1 | 2024-08-24 | HKD | 31000 | 31000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 2 | 2024-08-25 | HKD | 50000 | 50000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 3 | 2024-08-25 | HKD | 60000 | 60000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 4 | 2024-08-25 | HKD | 30000 | 30000 | HSB | Hong Kong | 222-222222-101  | CHEUNG TAK SHING  |
-| 1 | 2024-08-25 | HKD | 39000 | 39000 | Hong Kong | CHEUNG TAK SHING  |</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>IF('ADCC-Params'!B6="Y","\*\*STR\*\*","\*\*NO STR\*\*")</f>
-        <v>\*\*NO STR\*\*</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
+| 1 | &lt;Template_FraudPayment2_Date&gt;2024-08-24&lt;/Template_FraudPayment2_Date&gt; | &lt;Template_FraudPayment2_Currency&gt;HKD&lt;/Template_FraudPayment2_Currency&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_FraudPayment3_Date&gt;2024-08-25&lt;/Template_FraudPayment3_Date&gt; | &lt;Template_FraudPayment3_Currency&gt;HKD&lt;/Template_FraudPayment3_Currency&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment4_Date&gt;2024-08-24&lt;/Template_FraudPayment4_Date&gt; | &lt;Template_FraudPayment4_Currency&gt;HKD&lt;/Template_FraudPayment4_Currency&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_FraudPayment5_Date&gt;2024-08-25&lt;/Template_FraudPayment5_Date&gt; | &lt;Template_FraudPayment5_Currency&gt;HKD&lt;/Template_FraudPayment5_Currency&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 3 | &lt;Template_FraudPayment6_Date&gt;2024-08-25&lt;/Template_FraudPayment6_Date&gt; | &lt;Template_FraudPayment6_Currency&gt;HKD&lt;/Template_FraudPayment6_Currency&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 4 | &lt;Template_FraudPayment7_Date&gt;2024-08-25&lt;/Template_FraudPayment7_Date&gt; | &lt;Template_FraudPayment7_Currency&gt;HKD&lt;/Template_FraudPayment7_Currency&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment8_Date&gt;2024-08-25&lt;/Template_FraudPayment8_Date&gt; | &lt;Template_FraudPayment8_Currency&gt;HKD&lt;/Template_FraudPayment8_Currency&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+\*\*NO STR\*\*
+Details of Beneficiary
+| Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
+| ---- | ---------------- | ----- | ----------------------- | ------------------------ |
+| AC2 | &lt;Template_Suspect_2_Bank&gt;HSB&lt;/Template_Suspect_2_Bank&gt; | 1st | &lt;Template_Suspect_2_Account_Number&gt;111-111111-102 &lt;/Template_Suspect_2_Account_Number&gt; | &lt;Template_Suspect_2_Name&gt;CHUNG SIU&lt;/Template_Suspect_2_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment9_Date&gt;2024-08-25&lt;/Template_FraudPayment9_Date&gt; | &lt;Template_FraudPayment9_Currency&gt;HKD&lt;/Template_FraudPayment9_Currency&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+Transaction Details
+| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
+| --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
+| 1 | &lt;Template_FraudPayment10_Date&gt;2024-08-25&lt;/Template_FraudPayment10_Date&gt; | &lt;Template_FraudPayment10_Currency&gt;HKD&lt;/Template_FraudPayment10_Currency&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+\*\*NO STR\*\*</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
         <f>'ADCC-Template'!B10&amp;"**"&amp;'ADCC-Params'!B7&amp;"**"&amp;'ADCC-Template'!B11&amp;"**"&amp;'ADCC-Params'!B8&amp;"** "&amp;'ADCC-Template'!B12&amp;"**"&amp;'ADCC-Params'!B9&amp;"** "&amp;'ADCC-Template'!B13</f>
         <v>We have examined each report referred by the subject investigation team and we believe that **the beneficiary account(s) might have been used to deal with suspected proceeds of crime**. Therefore, you are advised (i) **to critically examine the alleged transaction(s) in the relevant account(s)** to ascertain whether or not you are satisfied that the provenance of the deposits into the said account(s) is legitimate and (ii) **to actively consider appropriate actions** to avoid dealing with property in whole or in part directly or indirectly represent any person's proceeds of an indictable offence, which may be liable to a prosecution for a criminal offence under sections 25(1) and (3) of the Organized and Serious Crimes Ordinance, Cap. 455. A person includes a financial institution.</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f>'ADCC-Template'!B14&amp;"**"&amp;"&lt;Template_Reporting_Reference&gt;"&amp;'ADCC-Params'!B10&amp;"&lt;/Template_Reporting_Reference&gt;"&amp;" ("&amp;'ADCC-Params'!B4&amp;")** "&amp;'ADCC-Template'!B15</f>
-        <v>When fulfilling the reporting obligations by filing Suspicious Transaction Reports (STR) to the Joint Financial Intelligence Unit ("JFIU"), if any, please state **&lt;Template_Reporting_Reference&gt;ESPS 7■■■■■■ and NTKDIV 24■■■■■&lt;/Template_Reporting_Reference&gt; (DIT2-■■■■■)** for ease of reference.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
+    <row r="12" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>'ADCC-Template'!B14&amp;"**"&amp;"&lt;Template_ReportingReference&gt;"&amp;'ADCC-Params'!B10&amp;"&lt;/Template_ReportingReference&gt;"&amp;" ("&amp;'ADCC-Params'!B4&amp;")** "&amp;'ADCC-Template'!B15</f>
+        <v>When fulfilling the reporting obligations by filing Suspicious Transaction Reports (STR) to the Joint Financial Intelligence Unit ("JFIU"), if any, please state **&lt;Template_ReportingReference&gt;ESPS 7■■■■■■ and NTKDIV 24■■■■■&lt;/Template_ReportingReference&gt; (DIT2-■■■■■)** for ease of reference.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
         <f>'ADCC-Template'!B16</f>
         <v>We confirm that the requested information is required for the purpose of section 58(1)(a) under the Personal Data (Privacy) Ordinance, Cap 486. Failure to provide the requested information may lead to possibly failure or unnecessary delay on prevention or detection of crime. In view of the above, we consider that section 58(2) as read with section 58(1)(a) of the Personal Data (Privacy) Ordinance, Cap. 486 is the applicable exemption under the circumstances.</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
+    <row r="16" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
         <f>'ADCC-Template'!B17</f>
         <v>You are also advised to refer to the "Guideline on Anti-Money Laundering and Counter-Terrorist Financing" published by the Hong Kong Monetary Authority (HKMA) under the Anti-Money Laundering and Counter-Terrorist Financing (Financial Institutions) Ordinance, Cap. 615 ("AMLO") and to take all reasonable measures to prevent a contravention and to mitigate Money Laundering risks.</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f>'ADCC-Template'!B18&amp;'ADCC-Params'!B11&amp;'ADCC-Template'!B19</f>
         <v xml:space="preserve">Should you have any enquiry, please feel free to contact the undersigned or our officers at 286■■■■■. Thank you! </v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
         <f>'ADCC-Template'!B20</f>
         <v xml:space="preserve">Best regards, </v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
         <f>'ADCC-Params'!B12</f>
         <v xml:space="preserve">PC 15■■■ Sze-yuen </v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
         <f>'ADCC-Template'!B21</f>
         <v>Anti-Deception Coordination Centre 
 Commercial Crime Bureau 
 Hong Kong Police Force</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
         <f>"Tel: "&amp;'ADCC-Params'!B11&amp;" / Fax: "&amp;'ADCC-Params'!B13</f>
         <v>Tel: 286■■■■■ / Fax: 220■■■■■</v>
       </c>

--- a/Raw Input Data/Template V2/ADCC V2.xlsx
+++ b/Raw Input Data/Template V2/ADCC V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Template V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CB24E-841F-4130-968A-322459EB262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B62AA-22B1-4692-9095-9B54CE4A6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{D98D0E3F-6E76-754A-9BB6-79DE637B44FD}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{D98D0E3F-6E76-754A-9BB6-79DE637B44FD}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC-Params" sheetId="1" r:id="rId1"/>
@@ -1082,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1160796E-BF6B-334E-B5BD-991CA2BB931A}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1791,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33965A-B397-8D4D-8C68-B0CC4C6D2983}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1975,16 +1975,16 @@
       _xlpm.benProcessed, _xlfn.HSTACK(
         INDEX(_xlpm.benRows, , 1),
         _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
-          "&lt;Template_Suspect_"&amp;_xlpm.group&amp;"_Bank&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 2)&amp;"&lt;/Template_Suspect_"&amp;_xlpm.group&amp;"_Bank&gt;"
+          "&lt;Template_Suspect"&amp;_xlpm.group&amp;"_Bank&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 2)&amp;"&lt;/Template_Suspect"&amp;_xlpm.group&amp;"_Bank&gt;"
         )),
         INDEX(_xlpm.benRows, , 3),
         _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
-          "&lt;Template_Suspect_"&amp;_xlpm.group&amp;"_Account_Number&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 4)&amp;"&lt;/Template_Suspect_"&amp;_xlpm.group&amp;"_Account_Number&gt;"
+          "&lt;Template_Suspect"&amp;_xlpm.group&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 4)&amp;"&lt;/Template_Suspect"&amp;_xlpm.group&amp;"_AccountNumber&gt;"
         )),
         _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
-          "&lt;Template_Suspect_" &amp; _xlpm.group &amp; "_Name&gt;" &amp;
+          "&lt;Template_Suspect" &amp; _xlpm.group &amp; "_Name&gt;" &amp;
           _xlpm.processAcctName(INDEX(_xlpm.benRows, _xlpm.i, 5)) &amp;
-          "&lt;/Template_Suspect_" &amp; _xlpm.group &amp; "_Name&gt;"
+          "&lt;/Template_Suspect" &amp; _xlpm.group &amp; "_Name&gt;"
         ))
       ),
       _xlpm.benHeaderRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.benHeaders) &amp; " |",
@@ -2052,7 +2052,7 @@
         <v>Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
 | ---- | ---------------- | ----- | ----------------------- | ------------------------ |
-| AC1 | &lt;Template_Suspect_1_Bank&gt;HSB&lt;/Template_Suspect_1_Bank&gt; | 1st | &lt;Template_Suspect_1_Account_Number&gt;111-111111-101 &lt;/Template_Suspect_1_Account_Number&gt; | &lt;Template_Suspect_1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect_1_Name&gt; |
+| AC1 | &lt;Template_Suspect1_Bank&gt;HSB&lt;/Template_Suspect1_Bank&gt; | 1st | &lt;Template_Suspect1_AccountNumber&gt;111-111111-101 &lt;/Template_Suspect1_AccountNumber&gt; | &lt;Template_Suspect1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
@@ -2073,7 +2073,7 @@
 Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
 | ---- | ---------------- | ----- | ----------------------- | ------------------------ |
-| AC2 | &lt;Template_Suspect_2_Bank&gt;HSB&lt;/Template_Suspect_2_Bank&gt; | 1st | &lt;Template_Suspect_2_Account_Number&gt;111-111111-102 &lt;/Template_Suspect_2_Account_Number&gt; | &lt;Template_Suspect_2_Name&gt;CHUNG SIU&lt;/Template_Suspect_2_Name&gt; |
+| AC2 | &lt;Template_Suspect2_Bank&gt;HSB&lt;/Template_Suspect2_Bank&gt; | 1st | &lt;Template_Suspect2_AccountNumber&gt;111-111111-102 &lt;/Template_Suspect2_AccountNumber&gt; | &lt;Template_Suspect2_Name&gt;CHUNG SIU&lt;/Template_Suspect2_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
@@ -2327,7 +2327,7 @@
         <v>Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
 | ---- | ---------------- | ----- | ----------------------- | ------------------------ |
-| AC1 | &lt;Template_Suspect_1_Bank&gt;HSB&lt;/Template_Suspect_1_Bank&gt; | 1st | &lt;Template_Suspect_1_Account_Number&gt;111-111111-101 &lt;/Template_Suspect_1_Account_Number&gt; | &lt;Template_Suspect_1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect_1_Name&gt; |
+| AC1 | &lt;Template_Suspect1_Bank&gt;HSB&lt;/Template_Suspect1_Bank&gt; | 1st | &lt;Template_Suspect1_AccountNumber&gt;111-111111-101 &lt;/Template_Suspect1_AccountNumber&gt; | &lt;Template_Suspect1_Name&gt;CHAN TAI MAN&lt;/Template_Suspect1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
@@ -2348,7 +2348,7 @@
 Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
 | ---- | ---------------- | ----- | ----------------------- | ------------------------ |
-| AC2 | &lt;Template_Suspect_2_Bank&gt;HSB&lt;/Template_Suspect_2_Bank&gt; | 1st | &lt;Template_Suspect_2_Account_Number&gt;111-111111-102 &lt;/Template_Suspect_2_Account_Number&gt; | &lt;Template_Suspect_2_Name&gt;CHUNG SIU&lt;/Template_Suspect_2_Name&gt; |
+| AC2 | &lt;Template_Suspect2_Bank&gt;HSB&lt;/Template_Suspect2_Bank&gt; | 1st | &lt;Template_Suspect2_AccountNumber&gt;111-111111-102 &lt;/Template_Suspect2_AccountNumber&gt; | &lt;Template_Suspect2_Name&gt;CHUNG SIU&lt;/Template_Suspect2_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |

--- a/Raw Input Data/Template V2/ADCC V2.xlsx
+++ b/Raw Input Data/Template V2/ADCC V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Template V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B62AA-22B1-4692-9095-9B54CE4A6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A99B944-CC76-4840-87CA-64988C9A5346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{D98D0E3F-6E76-754A-9BB6-79DE637B44FD}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1894,58 +1894,71 @@
       </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.LET(
-  _xlpm.rng, 'ADCC-Txn-Details'!A1:'ADCC-Txn-Details'!I21,
+  _xlpm.rng, 'ADCC-Txn-Details'!A1:I21,
   _xlpm.headers, INDEX(_xlpm.rng, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.rng))),
-  _xlpm.tableData, 'ADCC-Txn-Details'!A2:'ADCC-Txn-Details'!I21,
+  _xlpm.tableData, 'ADCC-Txn-Details'!A2:I21,
   _xlpm.data, _xlfn._xlws.FILTER(_xlpm.tableData, LEN(INDEX(_xlpm.tableData, 0, 1)) &gt; 0),
   _xlpm.Jcol, 'ADCC-Txn-Details'!J2:J21,
+  _xlpm.Kcol, 'ADCC-Txn-Details'!K2:K21,
   _xlpm.Lcol, 'ADCC-Txn-Details'!M2:M21,
   _xlpm.Mcol, 'ADCC-Txn-Details'!N2:N21,
   _xlpm.dataProcessed, _xlfn.HSTACK(
-      INDEX(_xlpm.data, , 1),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 2)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"
-      )),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 3)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"
-      )),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 4)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"
-      )),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 5)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"
-      )),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 6)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_Bank&gt;"
-      )),
-      INDEX(_xlpm.data, , 7),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 8)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_AccountNumber&gt;"
-      )),
-      _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
-        "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Name&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 9)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Name&gt;"
-      ))
+    INDEX(_xlpm.data, , 1),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      IF(INDEX(_xlpm.Kcol, _xlpm.i)="Y",
+        "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 2)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;",
+        "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 2)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Date&gt;"
+      )
+    )),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      IF(INDEX(_xlpm.Kcol, _xlpm.i)="Y",
+        "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 3)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;",
+        "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 3)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Currency&gt;"
+      )
+    )),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      IF(INDEX(_xlpm.Kcol, _xlpm.i)="Y",
+        "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 4)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;",
+        "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 4)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"
+      )
+    )),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      IF(INDEX(_xlpm.Kcol, _xlpm.i)="Y",
+        "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 5)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;",
+        "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 5)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.Jcol, _xlpm.i)&amp;"_Amount&gt;"
+      )
+    )),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 6)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_Bank&gt;"
+    )),
+    INDEX(_xlpm.data, , 7),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 8)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.Mcol, _xlpm.i)&amp;"_AccountNumber&gt;"
+    )),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.data)), _xlfn.LAMBDA(_xlpm.i,
+      "&lt;Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Name&gt;"&amp;INDEX(_xlpm.data, _xlpm.i, 9)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.Lcol, _xlpm.i)&amp;"_Name&gt;"
+    ))
   ),
   _xlpm.headerRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.headers) &amp; " |",
   _xlpm.dashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.headers, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
   _xlpm.dataRows, _xlfn.TEXTJOIN(CHAR(10), TRUE,
-                _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.dataProcessed)), _xlfn.LAMBDA(_xlpm.i,
-                  "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.dataProcessed, _xlpm.i, )) &amp; " |"
-                ))
-              ),
+    _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.dataProcessed)), _xlfn.LAMBDA(_xlpm.i,
+      "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.dataProcessed, _xlpm.i, )) &amp; " |"
+    ))
+  ),
   _xlpm.headerRow &amp; CHAR(10) &amp; _xlpm.dashRow &amp; CHAR(10) &amp; _xlpm.dataRows
 )</f>
         <v>| S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment2_Date&gt;2024-08-24&lt;/Template_FraudPayment2_Date&gt; | &lt;Template_FraudPayment2_Currency&gt;HKD&lt;/Template_FraudPayment2_Currency&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 2 | &lt;Template_FraudPayment3_Date&gt;2024-08-25&lt;/Template_FraudPayment3_Date&gt; | &lt;Template_FraudPayment3_Currency&gt;HKD&lt;/Template_FraudPayment3_Currency&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 1 | &lt;Template_FraudPayment4_Date&gt;2024-08-24&lt;/Template_FraudPayment4_Date&gt; | &lt;Template_FraudPayment4_Currency&gt;HKD&lt;/Template_FraudPayment4_Currency&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 2 | &lt;Template_FraudPayment5_Date&gt;2024-08-25&lt;/Template_FraudPayment5_Date&gt; | &lt;Template_FraudPayment5_Currency&gt;HKD&lt;/Template_FraudPayment5_Currency&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 3 | &lt;Template_FraudPayment6_Date&gt;2024-08-25&lt;/Template_FraudPayment6_Date&gt; | &lt;Template_FraudPayment6_Currency&gt;HKD&lt;/Template_FraudPayment6_Currency&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 4 | &lt;Template_FraudPayment7_Date&gt;2024-08-25&lt;/Template_FraudPayment7_Date&gt; | &lt;Template_FraudPayment7_Currency&gt;HKD&lt;/Template_FraudPayment7_Currency&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 1 | &lt;Template_FraudPayment8_Date&gt;2024-08-25&lt;/Template_FraudPayment8_Date&gt; | &lt;Template_FraudPayment8_Currency&gt;HKD&lt;/Template_FraudPayment8_Currency&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 1 | &lt;Template_FraudPayment9_Date&gt;2024-08-25&lt;/Template_FraudPayment9_Date&gt; | &lt;Template_FraudPayment9_Currency&gt;HKD&lt;/Template_FraudPayment9_Currency&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 1 | &lt;Template_FraudPayment10_Date&gt;2024-08-25&lt;/Template_FraudPayment10_Date&gt; | &lt;Template_FraudPayment10_Currency&gt;HKD&lt;/Template_FraudPayment10_Currency&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |</v>
+| 1 | &lt;Template_Located_FraudPayment2_Date&gt;2024-08-24&lt;/Template_Located_FraudPayment2_Date&gt; | &lt;Template_Located_FraudPayment2_Currency&gt;HKD&lt;/Template_Located_FraudPayment2_Currency&gt; | &lt;Template_Located_FraudPayment2_Amount&gt;50000&lt;/Template_Located_FraudPayment2_Amount&gt; | &lt;Template_Located_FraudPayment2_Amount&gt;50000&lt;/Template_Located_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_Located_FraudPayment3_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment3_Date&gt; | &lt;Template_Located_FraudPayment3_Currency&gt;HKD&lt;/Template_Located_FraudPayment3_Currency&gt; | &lt;Template_Located_FraudPayment3_Amount&gt;10000&lt;/Template_Located_FraudPayment3_Amount&gt; | &lt;Template_Located_FraudPayment3_Amount&gt;10000&lt;/Template_Located_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment4_Date&gt;2024-08-24&lt;/Template_Located_FraudPayment4_Date&gt; | &lt;Template_Located_FraudPayment4_Currency&gt;HKD&lt;/Template_Located_FraudPayment4_Currency&gt; | &lt;Template_Located_FraudPayment4_Amount&gt;31000&lt;/Template_Located_FraudPayment4_Amount&gt; | &lt;Template_Located_FraudPayment4_Amount&gt;31000&lt;/Template_Located_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_Located_FraudPayment5_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment5_Date&gt; | &lt;Template_Located_FraudPayment5_Currency&gt;HKD&lt;/Template_Located_FraudPayment5_Currency&gt; | &lt;Template_Located_FraudPayment5_Amount&gt;50000&lt;/Template_Located_FraudPayment5_Amount&gt; | &lt;Template_Located_FraudPayment5_Amount&gt;50000&lt;/Template_Located_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 3 | &lt;Template_Located_FraudPayment6_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment6_Date&gt; | &lt;Template_Located_FraudPayment6_Currency&gt;HKD&lt;/Template_Located_FraudPayment6_Currency&gt; | &lt;Template_Located_FraudPayment6_Amount&gt;60000&lt;/Template_Located_FraudPayment6_Amount&gt; | &lt;Template_Located_FraudPayment6_Amount&gt;60000&lt;/Template_Located_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 4 | &lt;Template_Located_FraudPayment7_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment7_Date&gt; | &lt;Template_Located_FraudPayment7_Currency&gt;HKD&lt;/Template_Located_FraudPayment7_Currency&gt; | &lt;Template_Located_FraudPayment7_Amount&gt;30000&lt;/Template_Located_FraudPayment7_Amount&gt; | &lt;Template_Located_FraudPayment7_Amount&gt;30000&lt;/Template_Located_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment8_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment8_Date&gt; | &lt;Template_Located_FraudPayment8_Currency&gt;HKD&lt;/Template_Located_FraudPayment8_Currency&gt; | &lt;Template_Located_FraudPayment8_Amount&gt;39000&lt;/Template_Located_FraudPayment8_Amount&gt; | &lt;Template_Located_FraudPayment8_Amount&gt;39000&lt;/Template_Located_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment9_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment9_Date&gt; | &lt;Template_Located_FraudPayment9_Currency&gt;HKD&lt;/Template_Located_FraudPayment9_Currency&gt; | &lt;Template_Located_FraudPayment9_Amount&gt;50000&lt;/Template_Located_FraudPayment9_Amount&gt; | &lt;Template_Located_FraudPayment9_Amount&gt;50000&lt;/Template_Located_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment10_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment10_Date&gt; | &lt;Template_Located_FraudPayment10_Currency&gt;HKD&lt;/Template_Located_FraudPayment10_Currency&gt; | &lt;Template_Located_FraudPayment10_Amount&gt;50000&lt;/Template_Located_FraudPayment10_Amount&gt; | &lt;Template_Located_FraudPayment10_Amount&gt;50000&lt;/Template_Located_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -1954,100 +1967,115 @@
       </c>
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.LET(
-  _xlpm.benRng, 'ADCC-Beneficiary-Details'!A1:E21,
-  _xlpm.benHeaders, INDEX(_xlpm.benRng, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.benRng))),
-  _xlpm.benTableData, 'ADCC-Beneficiary-Details'!A2:E21,
-  _xlpm.benData, _xlfn._xlws.FILTER(_xlpm.benTableData, LEN(INDEX(_xlpm.benTableData, 0, 1)) &gt; 0),
-  _xlpm.benFcol, _xlfn._xlws.FILTER('ADCC-Beneficiary-Details'!F2:F21, LEN(INDEX(_xlpm.benTableData, 0, 1)) &gt; 0),
-  _xlpm.processAcctName, _xlfn.LAMBDA(_xlpm.x, TRIM(SUBSTITUTE(SUBSTITUTE(_xlpm.x, CHAR(10), "&lt;br /&gt;"), """", ""))),
-  _xlpm.txnRng, 'ADCC-Txn-Details'!A1:I21,
-  _xlpm.txnHeaders, INDEX(_xlpm.txnRng, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.txnRng))),
-  _xlpm.txnTableData, 'ADCC-Txn-Details'!A2:I21,
-  _xlpm.txnJcol, 'ADCC-Txn-Details'!J2:J21,
-  _xlpm.txnLcol, 'ADCC-Txn-Details'!L2:L21,
-  _xlpm.txnMcol, 'ADCC-Txn-Details'!M2:M21,
-  _xlpm.txnNcol, 'ADCC-Txn-Details'!N2:N21,
-  _xlpm.groups, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.benFcol, _xlpm.benFcol&lt;&gt;"")),
-  _xlpm.makeSection, _xlfn.LAMBDA(_xlpm.group,
+  _xlpm.a, 'ADCC-Beneficiary-Details'!A1:E21,
+  _xlpm.b, INDEX(_xlpm.a, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.a))),
+  _xlpm.c, 'ADCC-Beneficiary-Details'!A2:E21,
+  _xlpm.d, _xlfn._xlws.FILTER(_xlpm.c, LEN(INDEX(_xlpm.c, 0, 1)) &gt; 0),
+  _xlpm.e, _xlfn._xlws.FILTER('ADCC-Beneficiary-Details'!F2:F21, LEN(INDEX(_xlpm.c, 0, 1)) &gt; 0),
+  _xlpm.f, _xlfn.LAMBDA(_xlpm.x, TRIM(SUBSTITUTE(SUBSTITUTE(_xlpm.x, CHAR(10), "&lt;br /&gt;"), """", ""))),
+  _xlpm.h, 'ADCC-Txn-Details'!A1:I21,
+  _xlpm.i, INDEX(_xlpm.h, 1, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.h))),
+  _xlpm.j, 'ADCC-Txn-Details'!A2:I21,
+  _xlpm.k, 'ADCC-Txn-Details'!J2:J21,
+  _xlpm.l, 'ADCC-Txn-Details'!K2:K21,
+  _xlpm.m, 'ADCC-Txn-Details'!L2:L21,
+  _xlpm.n, 'ADCC-Txn-Details'!M2:M21,
+  _xlpm.o, 'ADCC-Txn-Details'!N2:N21,
+  _xlpm.p, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.e, _xlpm.e&lt;&gt;"")),
+  _xlpm.q, _xlfn.LAMBDA(_xlpm.r,
     _xlfn.LET(
-      _xlpm.benRowIndices, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(ROWS(_xlpm.benFcol)), _xlpm.benFcol=_xlpm.group),
-      _xlpm.benRows, INDEX(_xlpm.benData, _xlpm.benRowIndices, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.benData))),
-      _xlpm.benProcessed, _xlfn.HSTACK(
-        INDEX(_xlpm.benRows, , 1),
-        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
-          "&lt;Template_Suspect"&amp;_xlpm.group&amp;"_Bank&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 2)&amp;"&lt;/Template_Suspect"&amp;_xlpm.group&amp;"_Bank&gt;"
+      _xlpm.s, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(ROWS(_xlpm.e)), _xlpm.e=_xlpm.r),
+      _xlpm.t, INDEX(_xlpm.d, _xlpm.s, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.d))),
+      _xlpm.u, _xlfn.HSTACK(
+        INDEX(_xlpm.t, , 1),
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.t)), _xlfn.LAMBDA(_xlpm.v,
+          "&lt;Template_Suspect"&amp;_xlpm.r&amp;"_Bank&gt;"&amp;INDEX(_xlpm.t, _xlpm.v, 2)&amp;"&lt;/Template_Suspect"&amp;_xlpm.r&amp;"_Bank&gt;"
         )),
-        INDEX(_xlpm.benRows, , 3),
-        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
-          "&lt;Template_Suspect"&amp;_xlpm.group&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.benRows, _xlpm.i, 4)&amp;"&lt;/Template_Suspect"&amp;_xlpm.group&amp;"_AccountNumber&gt;"
+        INDEX(_xlpm.t, , 3),
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.t)), _xlfn.LAMBDA(_xlpm.v,
+          "&lt;Template_Suspect"&amp;_xlpm.r&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.t, _xlpm.v, 4)&amp;"&lt;/Template_Suspect"&amp;_xlpm.r&amp;"_AccountNumber&gt;"
         )),
-        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benRows)), _xlfn.LAMBDA(_xlpm.i,
-          "&lt;Template_Suspect" &amp; _xlpm.group &amp; "_Name&gt;" &amp;
-          _xlpm.processAcctName(INDEX(_xlpm.benRows, _xlpm.i, 5)) &amp;
-          "&lt;/Template_Suspect" &amp; _xlpm.group &amp; "_Name&gt;"
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.t)), _xlfn.LAMBDA(_xlpm.v,
+          "&lt;Template_Suspect" &amp; _xlpm.r &amp; "_Name&gt;" &amp;
+          _xlpm.f(INDEX(_xlpm.t, _xlpm.v, 5)) &amp;
+          "&lt;/Template_Suspect" &amp; _xlpm.r &amp; "_Name&gt;"
         ))
       ),
-      _xlpm.benHeaderRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.benHeaders) &amp; " |",
-      _xlpm.benDashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.benHeaders, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
-      _xlpm.benDataRows, _xlfn.TEXTJOIN(CHAR(10), TRUE,
-        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.benProcessed)), _xlfn.LAMBDA(_xlpm.i,
-          "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.benProcessed, _xlpm.i, )) &amp; " |"
+      _xlpm.w, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.b) &amp; " |",
+      _xlpm.x, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.b, _xlfn.LAMBDA(_xlpm.y, REPT("-", LEN(_xlpm.y))))) &amp; " |",
+      _xlpm.z, _xlfn.TEXTJOIN(CHAR(10), TRUE,
+        _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.u)), _xlfn.LAMBDA(_xlpm.v,
+          "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.u, _xlpm.v, )) &amp; " |"
         ))
       ),
-      _xlpm.benTable, "Details of Beneficiary" &amp; CHAR(10) &amp; _xlpm.benHeaderRow &amp; CHAR(10) &amp; _xlpm.benDashRow &amp; CHAR(10) &amp; _xlpm.benDataRows,
-      _xlpm.txnForGroup, _xlfn._xlws.FILTER(_xlpm.txnTableData, _xlpm.txnLcol=_xlpm.group),
-      _xlpm.txnJForGroup, _xlfn._xlws.FILTER(_xlpm.txnJcol, _xlpm.txnLcol=_xlpm.group),
-      _xlpm.txnMForGroup, _xlfn._xlws.FILTER(_xlpm.txnMcol, _xlpm.txnLcol=_xlpm.group),
-      _xlpm.txnNForGroup, _xlfn._xlws.FILTER(_xlpm.txnNcol, _xlpm.txnLcol=_xlpm.group),
-      _xlpm.mnCombined, _xlpm.txnMForGroup &amp; "-" &amp; _xlpm.txnNForGroup,
-      _xlpm.txnSubGroups, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.mnCombined, _xlpm.mnCombined&lt;&gt;"")),
-      _xlpm.makeTxnTable, _xlfn.LAMBDA(_xlpm.subGroup,
+      _xlpm.aa, "Details of Beneficiary" &amp; CHAR(10) &amp; _xlpm.w &amp; CHAR(10) &amp; _xlpm.x &amp; CHAR(10) &amp; _xlpm.z,
+      _xlpm.bb, _xlfn._xlws.FILTER(_xlpm.j, _xlpm.m=_xlpm.r),
+      _xlpm.cc, _xlfn._xlws.FILTER(_xlpm.k, _xlpm.m=_xlpm.r),
+      _xlpm.dd, _xlfn._xlws.FILTER(_xlpm.l, _xlpm.m=_xlpm.r),
+      _xlpm.ee, _xlfn._xlws.FILTER(_xlpm.n, _xlpm.m=_xlpm.r),
+      _xlpm.ff, _xlfn._xlws.FILTER(_xlpm.o, _xlpm.m=_xlpm.r),
+      _xlpm.gg, _xlpm.ee &amp; "-" &amp; _xlpm.ff,
+      _xlpm.hh, _xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.gg, _xlpm.gg&lt;&gt;"")),
+      _xlpm.ii, _xlfn.LAMBDA(_xlpm.jj,
         _xlfn.LET(
-          _xlpm.subIndices, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(ROWS(_xlpm.mnCombined)), _xlpm.mnCombined=_xlpm.subGroup),
-          _xlpm.txnRows, INDEX(_xlpm.txnForGroup, _xlpm.subIndices, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.txnForGroup))),
-          _xlpm.subJcol, INDEX(_xlpm.txnJForGroup, _xlpm.subIndices),
-          _xlpm.subMcol, INDEX(_xlpm.txnMForGroup, _xlpm.subIndices),
-          _xlpm.subNcol, INDEX(_xlpm.txnNForGroup, _xlpm.subIndices),
-          _xlpm.txnProcessed, _xlfn.HSTACK(
-            INDEX(_xlpm.txnRows, , 1),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Date&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 2)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Date&gt;"
+          _xlpm.kk, _xlfn._xlws.FILTER(_xlfn.SEQUENCE(ROWS(_xlpm.gg)), _xlpm.gg=_xlpm.jj),
+          _xlpm.ll, INDEX(_xlpm.bb, _xlpm.kk, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.bb))),
+          _xlpm.mm, INDEX(_xlpm.cc, _xlpm.kk),
+          _xlpm.nn, INDEX(_xlpm.dd, _xlpm.kk),
+          _xlpm.oo, INDEX(_xlpm.ee, _xlpm.kk),
+          _xlpm.pp, INDEX(_xlpm.ff, _xlpm.kk),
+          _xlpm.qq, _xlfn.HSTACK(
+            INDEX(_xlpm.ll, , 1),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              IF(INDEX(_xlpm.nn, _xlpm.v)="Y",
+                "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Date&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 2)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Date&gt;",
+                "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Date&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 2)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Date&gt;"
+              )
             )),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 3)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Currency&gt;"
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              IF(INDEX(_xlpm.nn, _xlpm.v)="Y",
+                "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 3)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Currency&gt;",
+                "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Currency&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 3)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Currency&gt;"
+              )
             )),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 4)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              IF(INDEX(_xlpm.nn, _xlpm.v)="Y",
+                "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 4)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;",
+                "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 4)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;"
+              )
             )),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 5)&amp;"&lt;/Template_FraudPayment"&amp;INDEX(_xlpm.subJcol, _xlpm.i)&amp;"_Amount&gt;"
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              IF(INDEX(_xlpm.nn, _xlpm.v)="Y",
+                "&lt;Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 5)&amp;"&lt;/Template_Located_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;",
+                "&lt;Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 5)&amp;"&lt;/Template_NotLocated_FraudPayment"&amp;INDEX(_xlpm.mm, _xlpm.v)&amp;"_Amount&gt;"
+              )
             )),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 6)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_Bank&gt;"
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              "&lt;Template_Victim"&amp;INDEX(_xlpm.oo, _xlpm.v)&amp;"_Account"&amp;INDEX(_xlpm.pp, _xlpm.v)&amp;"_Bank&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 6)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.oo, _xlpm.v)&amp;"_Account"&amp;INDEX(_xlpm.pp, _xlpm.v)&amp;"_Bank&gt;"
             )),
-            INDEX(_xlpm.txnRows, , 7),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 8)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Account"&amp;INDEX(_xlpm.subNcol, _xlpm.i)&amp;"_AccountNumber&gt;"
+            INDEX(_xlpm.ll, , 7),
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              "&lt;Template_Victim"&amp;INDEX(_xlpm.oo, _xlpm.v)&amp;"_Account"&amp;INDEX(_xlpm.pp, _xlpm.v)&amp;"_AccountNumber&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 8)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.oo, _xlpm.v)&amp;"_Account"&amp;INDEX(_xlpm.pp, _xlpm.v)&amp;"_AccountNumber&gt;"
             )),
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnRows)), _xlfn.LAMBDA(_xlpm.i,
-              "&lt;Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Name&gt;"&amp;INDEX(_xlpm.txnRows, _xlpm.i, 9)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.subMcol, _xlpm.i)&amp;"_Name&gt;"
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.ll)), _xlfn.LAMBDA(_xlpm.v,
+              "&lt;Template_Victim"&amp;INDEX(_xlpm.oo, _xlpm.v)&amp;"_Name&gt;"&amp;INDEX(_xlpm.ll, _xlpm.v, 9)&amp;"&lt;/Template_Victim"&amp;INDEX(_xlpm.oo, _xlpm.v)&amp;"_Name&gt;"
             ))
           ),
-          _xlpm.txnHeaderRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.txnHeaders) &amp; " |",
-          _xlpm.txnDashRow, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.txnHeaders, _xlfn.LAMBDA(_xlpm.x, REPT("-", LEN(_xlpm.x))))) &amp; " |",
-          _xlpm.txnDataRows, _xlfn.TEXTJOIN(CHAR(10), TRUE,
-            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.txnProcessed)), _xlfn.LAMBDA(_xlpm.i,
-              "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.txnProcessed, _xlpm.i, )) &amp; " |"
+          _xlpm.rr, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlpm.i) &amp; " |",
+          _xlpm.ss, "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, _xlfn.MAP(_xlpm.i, _xlfn.LAMBDA(_xlpm.y, REPT("-", LEN(_xlpm.y))))) &amp; " |",
+          _xlpm.tt, _xlfn.TEXTJOIN(CHAR(10), TRUE,
+            _xlfn.MAP(_xlfn.SEQUENCE(ROWS(_xlpm.qq)), _xlfn.LAMBDA(_xlpm.v,
+              "| " &amp; _xlfn.TEXTJOIN(" | ", TRUE, INDEX(_xlpm.qq, _xlpm.v, )) &amp; " |"
             ))
           ),
-          "Transaction Details" &amp; CHAR(10) &amp; _xlpm.txnHeaderRow &amp; CHAR(10) &amp; _xlpm.txnDashRow &amp; CHAR(10) &amp; _xlpm.txnDataRows
+          "Transaction Details" &amp; CHAR(10) &amp; _xlpm.rr &amp; CHAR(10) &amp; _xlpm.ss &amp; CHAR(10) &amp; _xlpm.tt
         )
       ),
-      _xlpm.allTxnTables, _xlfn.TEXTJOIN(CHAR(10) &amp; CHAR(10), TRUE, _xlfn.MAP(_xlpm.txnSubGroups, _xlpm.makeTxnTable)),
-      _xlpm.benTable &amp; CHAR(10) &amp; CHAR(10) &amp; _xlpm.allTxnTables &amp; CHAR(10) &amp; CHAR(10) &amp; IF('ADCC-Params'!B6="Y","\*\*STR\*\*","\*\*NO STR\*\*")
+      _xlpm.uu, _xlfn.TEXTJOIN(CHAR(10) &amp; CHAR(10), TRUE, _xlfn.MAP(_xlpm.hh, _xlpm.ii)),
+      _xlpm.aa &amp; CHAR(10) &amp; CHAR(10) &amp; _xlpm.uu &amp; CHAR(10) &amp; CHAR(10) &amp; IF('ADCC-Params'!B6="Y","\*\*STR\*\*","\*\*NO STR\*\*")
     )
   ),
-  _xlfn.TEXTJOIN(CHAR(10) &amp; CHAR(10), TRUE, _xlfn.MAP(_xlpm.groups, _xlpm.makeSection))
+  _xlfn.TEXTJOIN(CHAR(10) &amp; CHAR(10), TRUE, _xlfn.MAP(_xlpm.p, _xlpm.q))
 )</f>
         <v>Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
@@ -2056,19 +2084,19 @@
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment2_Date&gt;2024-08-24&lt;/Template_FraudPayment2_Date&gt; | &lt;Template_FraudPayment2_Currency&gt;HKD&lt;/Template_FraudPayment2_Currency&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 2 | &lt;Template_FraudPayment3_Date&gt;2024-08-25&lt;/Template_FraudPayment3_Date&gt; | &lt;Template_FraudPayment3_Currency&gt;HKD&lt;/Template_FraudPayment3_Currency&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment2_Date&gt;2024-08-24&lt;/Template_Located_FraudPayment2_Date&gt; | &lt;Template_Located_FraudPayment2_Currency&gt;HKD&lt;/Template_Located_FraudPayment2_Currency&gt; | &lt;Template_Located_FraudPayment2_Amount&gt;50000&lt;/Template_Located_FraudPayment2_Amount&gt; | &lt;Template_Located_FraudPayment2_Amount&gt;50000&lt;/Template_Located_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_Located_FraudPayment3_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment3_Date&gt; | &lt;Template_Located_FraudPayment3_Currency&gt;HKD&lt;/Template_Located_FraudPayment3_Currency&gt; | &lt;Template_Located_FraudPayment3_Amount&gt;10000&lt;/Template_Located_FraudPayment3_Amount&gt; | &lt;Template_Located_FraudPayment3_Amount&gt;10000&lt;/Template_Located_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment4_Date&gt;2024-08-24&lt;/Template_FraudPayment4_Date&gt; | &lt;Template_FraudPayment4_Currency&gt;HKD&lt;/Template_FraudPayment4_Currency&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 2 | &lt;Template_FraudPayment5_Date&gt;2024-08-25&lt;/Template_FraudPayment5_Date&gt; | &lt;Template_FraudPayment5_Currency&gt;HKD&lt;/Template_FraudPayment5_Currency&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 3 | &lt;Template_FraudPayment6_Date&gt;2024-08-25&lt;/Template_FraudPayment6_Date&gt; | &lt;Template_FraudPayment6_Currency&gt;HKD&lt;/Template_FraudPayment6_Currency&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 4 | &lt;Template_FraudPayment7_Date&gt;2024-08-25&lt;/Template_FraudPayment7_Date&gt; | &lt;Template_FraudPayment7_Currency&gt;HKD&lt;/Template_FraudPayment7_Currency&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment4_Date&gt;2024-08-24&lt;/Template_Located_FraudPayment4_Date&gt; | &lt;Template_Located_FraudPayment4_Currency&gt;HKD&lt;/Template_Located_FraudPayment4_Currency&gt; | &lt;Template_Located_FraudPayment4_Amount&gt;31000&lt;/Template_Located_FraudPayment4_Amount&gt; | &lt;Template_Located_FraudPayment4_Amount&gt;31000&lt;/Template_Located_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_Located_FraudPayment5_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment5_Date&gt; | &lt;Template_Located_FraudPayment5_Currency&gt;HKD&lt;/Template_Located_FraudPayment5_Currency&gt; | &lt;Template_Located_FraudPayment5_Amount&gt;50000&lt;/Template_Located_FraudPayment5_Amount&gt; | &lt;Template_Located_FraudPayment5_Amount&gt;50000&lt;/Template_Located_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 3 | &lt;Template_Located_FraudPayment6_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment6_Date&gt; | &lt;Template_Located_FraudPayment6_Currency&gt;HKD&lt;/Template_Located_FraudPayment6_Currency&gt; | &lt;Template_Located_FraudPayment6_Amount&gt;60000&lt;/Template_Located_FraudPayment6_Amount&gt; | &lt;Template_Located_FraudPayment6_Amount&gt;60000&lt;/Template_Located_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 4 | &lt;Template_Located_FraudPayment7_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment7_Date&gt; | &lt;Template_Located_FraudPayment7_Currency&gt;HKD&lt;/Template_Located_FraudPayment7_Currency&gt; | &lt;Template_Located_FraudPayment7_Amount&gt;30000&lt;/Template_Located_FraudPayment7_Amount&gt; | &lt;Template_Located_FraudPayment7_Amount&gt;30000&lt;/Template_Located_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment8_Date&gt;2024-08-25&lt;/Template_FraudPayment8_Date&gt; | &lt;Template_FraudPayment8_Currency&gt;HKD&lt;/Template_FraudPayment8_Currency&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment8_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment8_Date&gt; | &lt;Template_Located_FraudPayment8_Currency&gt;HKD&lt;/Template_Located_FraudPayment8_Currency&gt; | &lt;Template_Located_FraudPayment8_Amount&gt;39000&lt;/Template_Located_FraudPayment8_Amount&gt; | &lt;Template_Located_FraudPayment8_Amount&gt;39000&lt;/Template_Located_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 \*\*NO STR\*\*
 Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
@@ -2077,11 +2105,11 @@
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment9_Date&gt;2024-08-25&lt;/Template_FraudPayment9_Date&gt; | &lt;Template_FraudPayment9_Currency&gt;HKD&lt;/Template_FraudPayment9_Currency&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment9_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment9_Date&gt; | &lt;Template_Located_FraudPayment9_Currency&gt;HKD&lt;/Template_Located_FraudPayment9_Currency&gt; | &lt;Template_Located_FraudPayment9_Amount&gt;50000&lt;/Template_Located_FraudPayment9_Amount&gt; | &lt;Template_Located_FraudPayment9_Amount&gt;50000&lt;/Template_Located_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment10_Date&gt;2024-08-25&lt;/Template_FraudPayment10_Date&gt; | &lt;Template_FraudPayment10_Currency&gt;HKD&lt;/Template_FraudPayment10_Currency&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment10_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment10_Date&gt; | &lt;Template_Located_FraudPayment10_Currency&gt;HKD&lt;/Template_Located_FraudPayment10_Currency&gt; | &lt;Template_Located_FraudPayment10_Amount&gt;50000&lt;/Template_Located_FraudPayment10_Amount&gt; | &lt;Template_Located_FraudPayment10_Amount&gt;50000&lt;/Template_Located_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 \*\*NO STR\*\*</v>
       </c>
     </row>
@@ -2283,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DA51B1-9D3A-004F-B268-14C997F191DB}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -2331,19 +2359,19 @@
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment2_Date&gt;2024-08-24&lt;/Template_FraudPayment2_Date&gt; | &lt;Template_FraudPayment2_Currency&gt;HKD&lt;/Template_FraudPayment2_Currency&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_FraudPayment2_Amount&gt;50000&lt;/Template_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 2 | &lt;Template_FraudPayment3_Date&gt;2024-08-25&lt;/Template_FraudPayment3_Date&gt; | &lt;Template_FraudPayment3_Currency&gt;HKD&lt;/Template_FraudPayment3_Currency&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_FraudPayment3_Amount&gt;10000&lt;/Template_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment2_Date&gt;2024-08-24&lt;/Template_Located_FraudPayment2_Date&gt; | &lt;Template_Located_FraudPayment2_Currency&gt;HKD&lt;/Template_Located_FraudPayment2_Currency&gt; | &lt;Template_Located_FraudPayment2_Amount&gt;50000&lt;/Template_Located_FraudPayment2_Amount&gt; | &lt;Template_Located_FraudPayment2_Amount&gt;50000&lt;/Template_Located_FraudPayment2_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_Located_FraudPayment3_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment3_Date&gt; | &lt;Template_Located_FraudPayment3_Currency&gt;HKD&lt;/Template_Located_FraudPayment3_Currency&gt; | &lt;Template_Located_FraudPayment3_Amount&gt;10000&lt;/Template_Located_FraudPayment3_Amount&gt; | &lt;Template_Located_FraudPayment3_Amount&gt;10000&lt;/Template_Located_FraudPayment3_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment4_Date&gt;2024-08-24&lt;/Template_FraudPayment4_Date&gt; | &lt;Template_FraudPayment4_Currency&gt;HKD&lt;/Template_FraudPayment4_Currency&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_FraudPayment4_Amount&gt;31000&lt;/Template_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 2 | &lt;Template_FraudPayment5_Date&gt;2024-08-25&lt;/Template_FraudPayment5_Date&gt; | &lt;Template_FraudPayment5_Currency&gt;HKD&lt;/Template_FraudPayment5_Currency&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_FraudPayment5_Amount&gt;50000&lt;/Template_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 3 | &lt;Template_FraudPayment6_Date&gt;2024-08-25&lt;/Template_FraudPayment6_Date&gt; | &lt;Template_FraudPayment6_Currency&gt;HKD&lt;/Template_FraudPayment6_Currency&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_FraudPayment6_Amount&gt;60000&lt;/Template_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
-| 4 | &lt;Template_FraudPayment7_Date&gt;2024-08-25&lt;/Template_FraudPayment7_Date&gt; | &lt;Template_FraudPayment7_Currency&gt;HKD&lt;/Template_FraudPayment7_Currency&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_FraudPayment7_Amount&gt;30000&lt;/Template_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment4_Date&gt;2024-08-24&lt;/Template_Located_FraudPayment4_Date&gt; | &lt;Template_Located_FraudPayment4_Currency&gt;HKD&lt;/Template_Located_FraudPayment4_Currency&gt; | &lt;Template_Located_FraudPayment4_Amount&gt;31000&lt;/Template_Located_FraudPayment4_Amount&gt; | &lt;Template_Located_FraudPayment4_Amount&gt;31000&lt;/Template_Located_FraudPayment4_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 2 | &lt;Template_Located_FraudPayment5_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment5_Date&gt; | &lt;Template_Located_FraudPayment5_Currency&gt;HKD&lt;/Template_Located_FraudPayment5_Currency&gt; | &lt;Template_Located_FraudPayment5_Amount&gt;50000&lt;/Template_Located_FraudPayment5_Amount&gt; | &lt;Template_Located_FraudPayment5_Amount&gt;50000&lt;/Template_Located_FraudPayment5_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 3 | &lt;Template_Located_FraudPayment6_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment6_Date&gt; | &lt;Template_Located_FraudPayment6_Currency&gt;HKD&lt;/Template_Located_FraudPayment6_Currency&gt; | &lt;Template_Located_FraudPayment6_Amount&gt;60000&lt;/Template_Located_FraudPayment6_Amount&gt; | &lt;Template_Located_FraudPayment6_Amount&gt;60000&lt;/Template_Located_FraudPayment6_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 4 | &lt;Template_Located_FraudPayment7_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment7_Date&gt; | &lt;Template_Located_FraudPayment7_Currency&gt;HKD&lt;/Template_Located_FraudPayment7_Currency&gt; | &lt;Template_Located_FraudPayment7_Amount&gt;30000&lt;/Template_Located_FraudPayment7_Amount&gt; | &lt;Template_Located_FraudPayment7_Amount&gt;30000&lt;/Template_Located_FraudPayment7_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment8_Date&gt;2024-08-25&lt;/Template_FraudPayment8_Date&gt; | &lt;Template_FraudPayment8_Currency&gt;HKD&lt;/Template_FraudPayment8_Currency&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_FraudPayment8_Amount&gt;39000&lt;/Template_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment8_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment8_Date&gt; | &lt;Template_Located_FraudPayment8_Currency&gt;HKD&lt;/Template_Located_FraudPayment8_Currency&gt; | &lt;Template_Located_FraudPayment8_Amount&gt;39000&lt;/Template_Located_FraudPayment8_Amount&gt; | &lt;Template_Located_FraudPayment8_Amount&gt;39000&lt;/Template_Located_FraudPayment8_Amount&gt; | &lt;Template_Victim1_Account3_Bank&gt;&lt;/Template_Victim1_Account3_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account3_AccountNumber&gt;&lt;/Template_Victim1_Account3_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 \*\*NO STR\*\*
 Details of Beneficiary
 | Ref. | Beneficiary Bank | Layer | Beneficiary Account No. | Beneficiary Account Name |
@@ -2352,11 +2380,11 @@
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment9_Date&gt;2024-08-25&lt;/Template_FraudPayment9_Date&gt; | &lt;Template_FraudPayment9_Currency&gt;HKD&lt;/Template_FraudPayment9_Currency&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_FraudPayment9_Amount&gt;50000&lt;/Template_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment9_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment9_Date&gt; | &lt;Template_Located_FraudPayment9_Currency&gt;HKD&lt;/Template_Located_FraudPayment9_Currency&gt; | &lt;Template_Located_FraudPayment9_Amount&gt;50000&lt;/Template_Located_FraudPayment9_Amount&gt; | &lt;Template_Located_FraudPayment9_Amount&gt;50000&lt;/Template_Located_FraudPayment9_Amount&gt; | &lt;Template_Victim1_Account1_Bank&gt;HSBC&lt;/Template_Victim1_Account1_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account1_AccountNumber&gt;444-4444444-101&lt;/Template_Victim1_Account1_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 Transaction Details
 | S/N | Date | Currency | Involved Amounts | Approx. HKD | Remitting Bank | AC Location | Depositor AC No. | Depositor AC Name |
 | --- | ---- | -------- | ---------------- | ----------- | -------------- | ----------- | ---------------- | ----------------- |
-| 1 | &lt;Template_FraudPayment10_Date&gt;2024-08-25&lt;/Template_FraudPayment10_Date&gt; | &lt;Template_FraudPayment10_Currency&gt;HKD&lt;/Template_FraudPayment10_Currency&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_FraudPayment10_Amount&gt;50000&lt;/Template_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
+| 1 | &lt;Template_Located_FraudPayment10_Date&gt;2024-08-25&lt;/Template_Located_FraudPayment10_Date&gt; | &lt;Template_Located_FraudPayment10_Currency&gt;HKD&lt;/Template_Located_FraudPayment10_Currency&gt; | &lt;Template_Located_FraudPayment10_Amount&gt;50000&lt;/Template_Located_FraudPayment10_Amount&gt; | &lt;Template_Located_FraudPayment10_Amount&gt;50000&lt;/Template_Located_FraudPayment10_Amount&gt; | &lt;Template_Victim1_Account2_Bank&gt;HSB&lt;/Template_Victim1_Account2_Bank&gt; | Hong Kong | &lt;Template_Victim1_Account2_AccountNumber&gt;222-222222-101 &lt;/Template_Victim1_Account2_AccountNumber&gt; | &lt;Template_Victim1_Name&gt;CHEUNG TAK SHING &lt;/Template_Victim1_Name&gt; |
 \*\*NO STR\*\*</v>
       </c>
     </row>
